--- a/biology/Botanique/Esplanadi/Esplanadi.xlsx
+++ b/biology/Botanique/Esplanadi/Esplanadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Esplanadi, en suédois Esplanaden (en français l'Esplanade) est le nom qui désigne collectivement deux rues et un parc du centre de la capitale finlandaise Helsinki. Elle est souvent surnommée Espa par les habitants de la capitale. Entre les rues Pohjoisesplanadi et Eteläesplanadi (Esplanade Nord et Sud), bordées de boutiques de luxe, de cafés et de ministères, on trouve un parc fondé en 1812 lors de la conception par Johan Albrecht Ehrenström du plan géométrique actuel de la cité.
@@ -513,11 +525,13 @@
           <t>Les rues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rues sont nommées Eteläesplanadi (Esplanade sud) et Pohjoisesplanadi (Esplanade nord) et suivent un axe est-ouest, reliant Mannerheimintie et le square d'Erottaja à l'ouest avec la place du marché et le port Sud à l'est, sur une longueur d'environ 500 mètres. 
 La rue Pohjoisesplanadi continue, sur le bord de la place du marché, jusqu'au canal de Katajanokka.
-Il a été proposé de transformer la Rue Pohjoisesplanadi en zone piétonne et la voie automobile serait réservée aux cafés, restaurants et aux cyclistes[1].
+Il a été proposé de transformer la Rue Pohjoisesplanadi en zone piétonne et la voie automobile serait réservée aux cafés, restaurants et aux cyclistes.
 La vitesse serait réduite à 20 km/h ce qui diminuerait les nuisances sonores.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Le Parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc inauguré en 1812 est un lieu de promenade très fréquenté par les habitants de la capitale. Il abrite plusieurs statues et mémorials, en l'honneur de Johan Ludvig Runeberg, Zacharias Topelius ou encore Eino Leino. Les rues qui traversent le parc le divisent en trois parties qui s'appellent Teatteriesplanadi (l'Esplanade du Théâtre), Runebergin esplanadi (l'Esplanade Runeberg) et Kappeliesplanadi (l'Esplanade Kappeli; du nom d'un restaurant édifié dans le parc depuis 1867)[2].  
-Le parc est très actif l'été, de nombreux finlandais viennent y déjeuner et boire. Il y a de nombreux concerts de musique sur une scène en face du café Kappelli[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc inauguré en 1812 est un lieu de promenade très fréquenté par les habitants de la capitale. Il abrite plusieurs statues et mémorials, en l'honneur de Johan Ludvig Runeberg, Zacharias Topelius ou encore Eino Leino. Les rues qui traversent le parc le divisent en trois parties qui s'appellent Teatteriesplanadi (l'Esplanade du Théâtre), Runebergin esplanadi (l'Esplanade Runeberg) et Kappeliesplanadi (l'Esplanade Kappeli; du nom d'un restaurant édifié dans le parc depuis 1867).  
+Le parc est très actif l'été, de nombreux finlandais viennent y déjeuner et boire. Il y a de nombreux concerts de musique sur une scène en face du café Kappelli.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Réserve d'eau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A 40-50 mètres de profondeur on a construit un réservoir de plusieurs dizaines de millions de litres d'eau qui sert de réserve d'eau froide pour le réseau de climatisation urbain qui refroidit les immeubles pendant la saison estivale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A 40-50 mètres de profondeur on a construit un réservoir de plusieurs dizaines de millions de litres d'eau qui sert de réserve d'eau froide pour le réseau de climatisation urbain qui refroidit les immeubles pendant la saison estivale.
 </t>
         </is>
       </c>
@@ -610,11 +628,12 @@
           <t>Bâtiments historiques de l'esplanade</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>De nombreux bâtiments historiques sont construits le long de l’esplanade[5],[6].
-Bâtiments d'Eteläesplanadi
-Bâtiments de Pohjoisesplanadi</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux bâtiments historiques sont construits le long de l’esplanade,.
+</t>
         </is>
       </c>
     </row>
